--- a/www.eia.gov/forecasts/steo/xls/Fig7.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig7.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Annual Consumption (Million barrels per day)</t>
@@ -56,7 +56,7 @@
     <t>World</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>*  Countries belonging to the Organization for Economic Cooperation and Development</t>
@@ -288,13 +288,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.29948553900000263</c:v>
+                  <c:v>0.30418910999999582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38607179499999944</c:v>
+                  <c:v>0.39532416699999828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28909573399999999</c:v>
+                  <c:v>0.23056595300000282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,13 +337,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.89843044599999899</c:v>
+                  <c:v>0.88778321199999866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78305068099999886</c:v>
+                  <c:v>0.77254695700000298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75575703000000161</c:v>
+                  <c:v>0.76080115099999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,13 +386,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.4273018260000612E-2</c:v>
+                  <c:v>5.5607851000072372E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4233746659999547E-2</c:v>
+                  <c:v>1.2127598349999325E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5815672690000504E-2</c:v>
+                  <c:v>1.3644781880000068E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,13 +435,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.21025296173999308</c:v>
+                  <c:v>0.21350363749001033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44100094334001128</c:v>
+                  <c:v>0.44182544064999973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44998534630999387</c:v>
+                  <c:v>0.45221744111999129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,8 +456,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="690122816"/>
-        <c:axId val="690122256"/>
+        <c:axId val="628163808"/>
+        <c:axId val="628164368"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -527,11 +527,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="675028352"/>
-        <c:axId val="675028912"/>
+        <c:axId val="628164928"/>
+        <c:axId val="628165488"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="690122816"/>
+        <c:axId val="628163808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +548,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122256"/>
+        <c:crossAx val="628164368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -556,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690122256"/>
+        <c:axId val="628164368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -584,12 +584,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122816"/>
+        <c:crossAx val="628163808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="675028352"/>
+        <c:axId val="628164928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,12 +599,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="675028912"/>
+        <c:crossAx val="628165488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="675028912"/>
+        <c:axId val="628165488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -621,7 +621,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="675028352"/>
+        <c:crossAx val="628164928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -792,7 +792,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -956,46 +956,46 @@
         </row>
         <row r="27">
           <cell r="I27">
-            <v>0.29948553900000263</v>
+            <v>0.30418910999999582</v>
           </cell>
           <cell r="J27">
-            <v>0.38607179499999944</v>
+            <v>0.39532416699999828</v>
           </cell>
           <cell r="K27">
-            <v>0.28909573399999999</v>
+            <v>0.23056595300000282</v>
           </cell>
         </row>
         <row r="28">
           <cell r="I28">
-            <v>0.89843044599999899</v>
+            <v>0.88778321199999866</v>
           </cell>
           <cell r="J28">
-            <v>0.78305068099999886</v>
+            <v>0.77254695700000298</v>
           </cell>
           <cell r="K28">
-            <v>0.75575703000000161</v>
+            <v>0.76080115099999901</v>
           </cell>
         </row>
         <row r="29">
           <cell r="I29">
-            <v>2.4273018260000612E-2</v>
+            <v>5.5607851000072372E-4</v>
           </cell>
           <cell r="J29">
-            <v>1.4233746659999547E-2</v>
+            <v>1.2127598349999325E-2</v>
           </cell>
           <cell r="K29">
-            <v>1.5815672690000504E-2</v>
+            <v>1.3644781880000068E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="I30">
-            <v>0.21025296173999308</v>
+            <v>0.21350363749001033</v>
           </cell>
           <cell r="J30">
-            <v>0.44100094334001128</v>
+            <v>0.44182544064999973</v>
           </cell>
           <cell r="K30">
-            <v>0.44998534630999387</v>
+            <v>0.45221744111999129</v>
           </cell>
         </row>
         <row r="36">
@@ -1381,28 +1381,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="12">
-        <v>46.410858933999997</v>
+        <v>46.327475290000002</v>
       </c>
       <c r="E27" s="12">
-        <v>46.710344472999999</v>
+        <v>46.631664399999998</v>
       </c>
       <c r="F27" s="12">
-        <v>47.096416267999999</v>
+        <v>47.026988566999997</v>
       </c>
       <c r="G27" s="12">
-        <v>47.385512001999999</v>
+        <v>47.257554519999999</v>
       </c>
       <c r="I27" s="12">
         <f t="shared" ref="I27:K31" si="0">E27-D27</f>
-        <v>0.29948553900000263</v>
+        <v>0.30418910999999582</v>
       </c>
       <c r="J27" s="12">
         <f t="shared" si="0"/>
-        <v>0.38607179499999944</v>
+        <v>0.39532416699999828</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>0.28909573399999999</v>
+        <v>0.23056595300000282</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1411,28 +1411,28 @@
         <v>4</v>
       </c>
       <c r="D28" s="12">
-        <v>23.546937909</v>
+        <v>24.23996868</v>
       </c>
       <c r="E28" s="12">
-        <v>24.445368354999999</v>
+        <v>25.127751891999999</v>
       </c>
       <c r="F28" s="12">
-        <v>25.228419035999998</v>
+        <v>25.900298849000002</v>
       </c>
       <c r="G28" s="12">
-        <v>25.984176066</v>
+        <v>26.661100000000001</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
-        <v>0.89843044599999899</v>
+        <v>0.88778321199999866</v>
       </c>
       <c r="J28" s="12">
         <f t="shared" si="0"/>
-        <v>0.78305068099999886</v>
+        <v>0.77254695700000298</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>0.75575703000000161</v>
+        <v>0.76080115099999901</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1441,28 +1441,28 @@
         <v>5</v>
       </c>
       <c r="D29" s="12">
-        <v>5.5320438215399994</v>
+        <v>5.56511083944</v>
       </c>
       <c r="E29" s="12">
-        <v>5.5563168398</v>
+        <v>5.5656669179500007</v>
       </c>
       <c r="F29" s="12">
-        <v>5.5705505864599996</v>
+        <v>5.5777945163</v>
       </c>
       <c r="G29" s="12">
-        <v>5.5863662591500001</v>
+        <v>5.5914392981800001</v>
       </c>
       <c r="I29" s="12">
         <f t="shared" si="0"/>
-        <v>2.4273018260000612E-2</v>
+        <v>5.5607851000072372E-4</v>
       </c>
       <c r="J29" s="12">
         <f t="shared" si="0"/>
-        <v>1.4233746659999547E-2</v>
+        <v>1.2127598349999325E-2</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>1.5815672690000504E-2</v>
+        <v>1.3644781880000068E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1472,31 +1472,31 @@
       </c>
       <c r="D30" s="12">
         <f>D31-D27-D28-D29</f>
-        <v>18.650985701460002</v>
+        <v>18.927666499559997</v>
       </c>
       <c r="E30" s="12">
         <f t="shared" ref="E30:G30" si="1">E31-E27-E28-E29</f>
-        <v>18.861238663199995</v>
+        <v>19.141170137050008</v>
       </c>
       <c r="F30" s="12">
         <f t="shared" si="1"/>
-        <v>19.302239606540006</v>
+        <v>19.582995577700007</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>19.75222495285</v>
+        <v>20.035213018819999</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="0"/>
-        <v>0.21025296173999308</v>
+        <v>0.21350363749001033</v>
       </c>
       <c r="J30" s="12">
         <f t="shared" si="0"/>
-        <v>0.44100094334001128</v>
+        <v>0.44182544064999973</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="0"/>
-        <v>0.44998534630999387</v>
+        <v>0.45221744111999129</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,29 +1506,29 @@
         <v>7</v>
       </c>
       <c r="D31" s="14">
-        <v>94.140826365999999</v>
+        <v>95.060221308999999</v>
       </c>
       <c r="E31" s="14">
-        <v>95.573268330999994</v>
+        <v>96.466253347000006</v>
       </c>
       <c r="F31" s="14">
-        <v>97.197625497000004</v>
+        <v>98.088077510000005</v>
       </c>
       <c r="G31" s="14">
-        <v>98.708279279999999</v>
+        <v>99.545306836999998</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="14">
         <f t="shared" si="0"/>
-        <v>1.4324419649999953</v>
+        <v>1.4060320380000064</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="0"/>
-        <v>1.62435716600001</v>
+        <v>1.6218241629999994</v>
       </c>
       <c r="K31" s="14">
         <f t="shared" si="0"/>
-        <v>1.5106537829999951</v>
+        <v>1.4572293269999932</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
